--- a/mktplace_geral_240515.xlsx
+++ b/mktplace_geral_240515.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/Documents/GitHub/etiquetador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E646EC-9480-284F-B4A8-466E20C25F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCC0D5D-3BF0-1243-BDE3-429DA14CB700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="2120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11760" yWindow="2400" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Plan1!$A$1:$N$186</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$N$475</definedName>
   </definedNames>
-  <calcPr calcId="191028" refMode="R1C1"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3483" uniqueCount="673">
   <si>
     <t>sku</t>
   </si>
@@ -2045,16 +2045,35 @@
   </si>
   <si>
     <t>https://www.camicado.com.br/p/sofa-stok-3-lugares-cor-cinza-com-pes-pretos-250-cm-60850/-/A-701687624-br.lc?sku=755063521</t>
+  </si>
+  <si>
+    <t>Luminária de Chão Dante Champagne e Linho Cru</t>
+  </si>
+  <si>
+    <t>madeira de eucalipto</t>
+  </si>
+  <si>
+    <t>Champagne Linho Cru</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Luminária de Chão Allain Champagne e Linho Cru - Wood Prime VM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesa Lateral Baixa Ronse Cinamomo Amêndoa com Pés de Ferro Champagne </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="000000000"/>
     <numFmt numFmtId="165" formatCode="0000000000000"/>
+    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -2300,7 +2319,7 @@
     <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2505,9 +2524,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2627,6 +2643,18 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2924,10 +2952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023AE218-48A5-4129-842F-D143ABB84212}">
-  <dimension ref="A1:N196"/>
+  <dimension ref="A1:N198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="A198" sqref="A198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2939,31 +2967,31 @@
       <c r="A1" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="B1" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="76" t="s">
+      <c r="B1" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="75" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="6" t="s">
@@ -2972,10 +3000,10 @@
       <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="77" t="s">
+      <c r="N1" s="76" t="s">
         <v>577</v>
       </c>
     </row>
@@ -2989,7 +3017,7 @@
       <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="116">
+      <c r="D2" s="115">
         <v>6661.9</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -3033,7 +3061,7 @@
       <c r="C3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="116">
+      <c r="D3" s="115">
         <v>504.9</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -3077,7 +3105,7 @@
       <c r="C4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="116">
+      <c r="D4" s="115">
         <v>1901.9</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -3121,7 +3149,7 @@
       <c r="C5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="116">
+      <c r="D5" s="115">
         <v>1448.9</v>
       </c>
       <c r="E5" s="12" t="s">
@@ -3165,7 +3193,7 @@
       <c r="C6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="116">
+      <c r="D6" s="115">
         <v>629.9</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -3209,7 +3237,7 @@
       <c r="C7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="116">
+      <c r="D7" s="115">
         <v>2904.9</v>
       </c>
       <c r="E7" s="12" t="s">
@@ -3253,7 +3281,7 @@
       <c r="C8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="116">
+      <c r="D8" s="115">
         <v>2316.9</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -3297,7 +3325,7 @@
       <c r="C9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="116">
+      <c r="D9" s="115">
         <v>424.9</v>
       </c>
       <c r="E9" s="12" t="s">
@@ -3341,7 +3369,7 @@
       <c r="C10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="116">
+      <c r="D10" s="115">
         <v>595.9</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -3385,7 +3413,7 @@
       <c r="C11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="116">
+      <c r="D11" s="115">
         <v>1851.9</v>
       </c>
       <c r="E11" s="12" t="s">
@@ -3429,7 +3457,7 @@
       <c r="C12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="116">
+      <c r="D12" s="115">
         <v>368.9</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -3473,7 +3501,7 @@
       <c r="C13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="116">
+      <c r="D13" s="115">
         <v>1488.9</v>
       </c>
       <c r="E13" s="12" t="s">
@@ -3517,7 +3545,7 @@
       <c r="C14" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="116">
+      <c r="D14" s="115">
         <v>1480.9</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -3561,7 +3589,7 @@
       <c r="C15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="116">
+      <c r="D15" s="115">
         <v>5611.9</v>
       </c>
       <c r="E15" s="16" t="s">
@@ -3605,7 +3633,7 @@
       <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="116">
+      <c r="D16" s="115">
         <v>3112.9</v>
       </c>
       <c r="E16" s="16" t="s">
@@ -3649,7 +3677,7 @@
       <c r="C17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="116">
+      <c r="D17" s="115">
         <v>1964.9</v>
       </c>
       <c r="E17" s="16" t="s">
@@ -3693,7 +3721,7 @@
       <c r="C18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="116">
+      <c r="D18" s="115">
         <v>5249.9</v>
       </c>
       <c r="E18" s="12" t="s">
@@ -3737,7 +3765,7 @@
       <c r="C19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="116">
+      <c r="D19" s="115">
         <v>3807.9</v>
       </c>
       <c r="E19" s="12" t="s">
@@ -3781,7 +3809,7 @@
       <c r="C20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="116">
+      <c r="D20" s="115">
         <v>2044.9</v>
       </c>
       <c r="E20" s="12" t="s">
@@ -3825,7 +3853,7 @@
       <c r="C21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="116">
+      <c r="D21" s="115">
         <v>1170.9000000000001</v>
       </c>
       <c r="E21" s="12" t="s">
@@ -3869,7 +3897,7 @@
       <c r="C22" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="116">
+      <c r="D22" s="115">
         <v>3443.9</v>
       </c>
       <c r="E22" s="12" t="s">
@@ -3913,7 +3941,7 @@
       <c r="C23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="116">
+      <c r="D23" s="115">
         <v>3167.9</v>
       </c>
       <c r="E23" s="20" t="s">
@@ -3957,7 +3985,7 @@
       <c r="C24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="116">
+      <c r="D24" s="115">
         <v>2391.9</v>
       </c>
       <c r="E24" s="12" t="s">
@@ -4001,7 +4029,7 @@
       <c r="C25" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="116">
+      <c r="D25" s="115">
         <v>5511.9</v>
       </c>
       <c r="E25" s="12" t="s">
@@ -4045,7 +4073,7 @@
       <c r="C26" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="116">
+      <c r="D26" s="115">
         <v>1490.9</v>
       </c>
       <c r="E26" s="17" t="s">
@@ -4089,7 +4117,7 @@
       <c r="C27" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="116">
+      <c r="D27" s="115">
         <v>1390.9</v>
       </c>
       <c r="E27" s="17" t="s">
@@ -4133,7 +4161,7 @@
       <c r="C28" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="116">
+      <c r="D28" s="115">
         <v>1195.9000000000001</v>
       </c>
       <c r="E28" s="17" t="s">
@@ -4177,7 +4205,7 @@
       <c r="C29" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="116">
+      <c r="D29" s="115">
         <v>2803.9</v>
       </c>
       <c r="E29" s="12" t="s">
@@ -4221,7 +4249,7 @@
       <c r="C30" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="116">
+      <c r="D30" s="115">
         <v>4774.8999999999996</v>
       </c>
       <c r="E30" s="16" t="s">
@@ -4265,7 +4293,7 @@
       <c r="C31" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="116">
+      <c r="D31" s="115">
         <v>1703.9</v>
       </c>
       <c r="E31" s="17" t="s">
@@ -4309,7 +4337,7 @@
       <c r="C32" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="116">
+      <c r="D32" s="115">
         <v>2119.9</v>
       </c>
       <c r="E32" s="12" t="s">
@@ -4353,7 +4381,7 @@
       <c r="C33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="116">
+      <c r="D33" s="115">
         <v>617.9</v>
       </c>
       <c r="E33" s="16" t="s">
@@ -4397,7 +4425,7 @@
       <c r="C34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="116">
+      <c r="D34" s="115">
         <v>2156.9</v>
       </c>
       <c r="E34" s="16" t="s">
@@ -4441,7 +4469,7 @@
       <c r="C35" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="116">
+      <c r="D35" s="115">
         <v>2422.9</v>
       </c>
       <c r="E35" s="12" t="s">
@@ -4485,7 +4513,7 @@
       <c r="C36" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="116">
+      <c r="D36" s="115">
         <v>4522.8999999999996</v>
       </c>
       <c r="E36" s="12" t="s">
@@ -4529,7 +4557,7 @@
       <c r="C37" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="116">
+      <c r="D37" s="115">
         <v>5653.9</v>
       </c>
       <c r="E37" s="12" t="s">
@@ -4573,7 +4601,7 @@
       <c r="C38" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D38" s="116">
+      <c r="D38" s="115">
         <v>1278.9000000000001</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -4617,7 +4645,7 @@
       <c r="C39" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="116">
+      <c r="D39" s="115">
         <v>6320.9</v>
       </c>
       <c r="E39" s="12" t="s">
@@ -4661,7 +4689,7 @@
       <c r="C40" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="116">
+      <c r="D40" s="115">
         <v>5823.9</v>
       </c>
       <c r="E40" s="12" t="s">
@@ -4705,7 +4733,7 @@
       <c r="C41" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="116">
+      <c r="D41" s="115">
         <v>5554.9</v>
       </c>
       <c r="E41" s="12" t="s">
@@ -4749,7 +4777,7 @@
       <c r="C42" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="116">
+      <c r="D42" s="115">
         <v>1107.9000000000001</v>
       </c>
       <c r="E42" s="12" t="s">
@@ -4793,7 +4821,7 @@
       <c r="C43" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D43" s="116">
+      <c r="D43" s="115">
         <v>2715.9</v>
       </c>
       <c r="E43" s="12" t="s">
@@ -4837,7 +4865,7 @@
       <c r="C44" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="116">
+      <c r="D44" s="115">
         <v>3279.9</v>
       </c>
       <c r="E44" s="12" t="s">
@@ -4881,7 +4909,7 @@
       <c r="C45" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="116">
+      <c r="D45" s="115">
         <v>1281.9000000000001</v>
       </c>
       <c r="E45" s="12" t="s">
@@ -4925,7 +4953,7 @@
       <c r="C46" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="116">
+      <c r="D46" s="115">
         <v>5313.9</v>
       </c>
       <c r="E46" s="12" t="s">
@@ -4969,7 +4997,7 @@
       <c r="C47" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D47" s="116">
+      <c r="D47" s="115">
         <v>1674.9</v>
       </c>
       <c r="E47" s="12" t="s">
@@ -5013,7 +5041,7 @@
       <c r="C48" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D48" s="116">
+      <c r="D48" s="115">
         <v>1678.9</v>
       </c>
       <c r="E48" s="12" t="s">
@@ -5057,7 +5085,7 @@
       <c r="C49" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="116">
+      <c r="D49" s="115">
         <v>2783.9</v>
       </c>
       <c r="E49" s="12" t="s">
@@ -5101,7 +5129,7 @@
       <c r="C50" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="116">
+      <c r="D50" s="115">
         <v>1446.9</v>
       </c>
       <c r="E50" s="12" t="s">
@@ -5145,7 +5173,7 @@
       <c r="C51" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="116">
+      <c r="D51" s="115">
         <v>1621.9</v>
       </c>
       <c r="E51" s="12" t="s">
@@ -5189,7 +5217,7 @@
       <c r="C52" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="116">
+      <c r="D52" s="115">
         <v>1728.9</v>
       </c>
       <c r="E52" s="12" t="s">
@@ -5233,7 +5261,7 @@
       <c r="C53" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="116">
+      <c r="D53" s="115">
         <v>1224.9000000000001</v>
       </c>
       <c r="E53" s="12" t="s">
@@ -5277,7 +5305,7 @@
       <c r="C54" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="116">
+      <c r="D54" s="115">
         <v>3704.9</v>
       </c>
       <c r="E54" s="12" t="s">
@@ -5321,7 +5349,7 @@
       <c r="C55" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D55" s="116">
+      <c r="D55" s="115">
         <v>2990.9</v>
       </c>
       <c r="E55" s="12" t="s">
@@ -5365,7 +5393,7 @@
       <c r="C56" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="116">
+      <c r="D56" s="115">
         <v>2070.9</v>
       </c>
       <c r="E56" s="12" t="s">
@@ -5409,7 +5437,7 @@
       <c r="C57" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="116">
+      <c r="D57" s="115">
         <v>4305.8999999999996</v>
       </c>
       <c r="E57" s="12" t="s">
@@ -5453,7 +5481,7 @@
       <c r="C58" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="116">
+      <c r="D58" s="115">
         <v>8923.9</v>
       </c>
       <c r="E58" s="12" t="s">
@@ -5497,7 +5525,7 @@
       <c r="C59" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="116">
+      <c r="D59" s="115">
         <v>2934.9</v>
       </c>
       <c r="E59" s="12" t="s">
@@ -5541,7 +5569,7 @@
       <c r="C60" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="D60" s="116">
+      <c r="D60" s="115">
         <v>2290.9</v>
       </c>
       <c r="E60" s="16" t="s">
@@ -5585,7 +5613,7 @@
       <c r="C61" s="30" t="s">
         <v>550</v>
       </c>
-      <c r="D61" s="116">
+      <c r="D61" s="115">
         <v>2324.25</v>
       </c>
       <c r="E61" s="20" t="s">
@@ -5609,7 +5637,7 @@
       <c r="K61" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="L61" s="78">
+      <c r="L61" s="77">
         <v>30008</v>
       </c>
       <c r="M61" s="10" t="s">
@@ -5629,7 +5657,7 @@
       <c r="C62" s="30" t="s">
         <v>552</v>
       </c>
-      <c r="D62" s="116">
+      <c r="D62" s="115">
         <v>861.75</v>
       </c>
       <c r="E62" s="20" t="s">
@@ -5653,7 +5681,7 @@
       <c r="K62" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="L62" s="78">
+      <c r="L62" s="77">
         <v>30008</v>
       </c>
       <c r="M62" s="10" t="s">
@@ -5673,7 +5701,7 @@
       <c r="C63" s="34" t="s">
         <v>553</v>
       </c>
-      <c r="D63" s="116">
+      <c r="D63" s="115">
         <v>679.15</v>
       </c>
       <c r="E63" s="20" t="s">
@@ -5697,7 +5725,7 @@
       <c r="K63" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="L63" s="78">
+      <c r="L63" s="77">
         <v>30008</v>
       </c>
       <c r="M63" s="10" t="s">
@@ -5717,7 +5745,7 @@
       <c r="C64" s="30" t="s">
         <v>556</v>
       </c>
-      <c r="D64" s="116">
+      <c r="D64" s="115">
         <v>7224.15</v>
       </c>
       <c r="E64" s="20" t="s">
@@ -5741,7 +5769,7 @@
       <c r="K64" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="L64" s="78">
+      <c r="L64" s="77">
         <v>30008</v>
       </c>
       <c r="M64" s="10" t="s">
@@ -5761,7 +5789,7 @@
       <c r="C65" s="37" t="s">
         <v>559</v>
       </c>
-      <c r="D65" s="116">
+      <c r="D65" s="115">
         <v>3554.1</v>
       </c>
       <c r="E65" s="20" t="s">
@@ -5785,7 +5813,7 @@
       <c r="K65" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="L65" s="78">
+      <c r="L65" s="77">
         <v>30008</v>
       </c>
       <c r="M65" s="10" t="s">
@@ -5805,7 +5833,7 @@
       <c r="C66" s="34" t="s">
         <v>562</v>
       </c>
-      <c r="D66" s="116">
+      <c r="D66" s="115">
         <v>3104.1</v>
       </c>
       <c r="E66" s="20" t="s">
@@ -5829,7 +5857,7 @@
       <c r="K66" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="L66" s="78">
+      <c r="L66" s="77">
         <v>30008</v>
       </c>
       <c r="M66" s="10" t="s">
@@ -5849,7 +5877,7 @@
       <c r="C67" s="37" t="s">
         <v>565</v>
       </c>
-      <c r="D67" s="116">
+      <c r="D67" s="115">
         <v>1124.0999999999999</v>
       </c>
       <c r="E67" s="20" t="s">
@@ -5873,7 +5901,7 @@
       <c r="K67" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="L67" s="78">
+      <c r="L67" s="77">
         <v>30008</v>
       </c>
       <c r="M67" s="10" t="s">
@@ -5893,7 +5921,7 @@
       <c r="C68" s="37" t="s">
         <v>565</v>
       </c>
-      <c r="D68" s="116">
+      <c r="D68" s="115">
         <v>1214.0999999999999</v>
       </c>
       <c r="E68" s="20" t="s">
@@ -5917,7 +5945,7 @@
       <c r="K68" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="L68" s="78">
+      <c r="L68" s="77">
         <v>30008</v>
       </c>
       <c r="M68" s="10" t="s">
@@ -5937,7 +5965,7 @@
       <c r="C69" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="D69" s="116">
+      <c r="D69" s="115">
         <v>1536.22</v>
       </c>
       <c r="E69" s="20" t="s">
@@ -5981,7 +6009,7 @@
       <c r="C70" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="D70" s="116">
+      <c r="D70" s="115">
         <v>1398.35</v>
       </c>
       <c r="E70" s="20" t="s">
@@ -6025,7 +6053,7 @@
       <c r="C71" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="D71" s="116">
+      <c r="D71" s="115">
         <v>1499.39</v>
       </c>
       <c r="E71" s="20" t="s">
@@ -6069,7 +6097,7 @@
       <c r="C72" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="D72" s="116">
+      <c r="D72" s="115">
         <v>3273.68</v>
       </c>
       <c r="E72" s="20" t="s">
@@ -6113,7 +6141,7 @@
       <c r="C73" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="D73" s="116">
+      <c r="D73" s="115">
         <v>2489.9899999999998</v>
       </c>
       <c r="E73" s="20" t="s">
@@ -6157,7 +6185,7 @@
       <c r="C74" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="D74" s="116">
+      <c r="D74" s="115">
         <v>2199.11</v>
       </c>
       <c r="E74" s="20" t="s">
@@ -6201,7 +6229,7 @@
       <c r="C75" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="D75" s="116">
+      <c r="D75" s="115">
         <v>4748.09</v>
       </c>
       <c r="E75" s="20" t="s">
@@ -6245,7 +6273,7 @@
       <c r="C76" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="D76" s="116">
+      <c r="D76" s="115">
         <v>2961.3</v>
       </c>
       <c r="E76" s="20" t="s">
@@ -6289,7 +6317,7 @@
       <c r="C77" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="D77" s="116">
+      <c r="D77" s="115">
         <v>6497.39</v>
       </c>
       <c r="E77" s="20" t="s">
@@ -6333,7 +6361,7 @@
       <c r="C78" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="D78" s="116">
+      <c r="D78" s="115">
         <v>4296.2299999999996</v>
       </c>
       <c r="E78" s="20" t="s">
@@ -6377,7 +6405,7 @@
       <c r="C79" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="D79" s="116">
+      <c r="D79" s="115">
         <v>10024.549999999999</v>
       </c>
       <c r="E79" s="20" t="s">
@@ -6421,7 +6449,7 @@
       <c r="C80" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D80" s="116">
+      <c r="D80" s="115">
         <v>1806.9</v>
       </c>
       <c r="E80" s="12" t="s">
@@ -6465,7 +6493,7 @@
       <c r="C81" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="D81" s="116">
+      <c r="D81" s="115">
         <v>768.9</v>
       </c>
       <c r="E81" s="12" t="s">
@@ -6509,7 +6537,7 @@
       <c r="C82" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D82" s="116">
+      <c r="D82" s="115">
         <v>3386.9</v>
       </c>
       <c r="E82" s="12" t="s">
@@ -6553,7 +6581,7 @@
       <c r="C83" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D83" s="116">
+      <c r="D83" s="115">
         <v>717.9</v>
       </c>
       <c r="E83" s="12" t="s">
@@ -6597,7 +6625,7 @@
       <c r="C84" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="116">
+      <c r="D84" s="115">
         <v>2249.9</v>
       </c>
       <c r="E84" s="12" t="s">
@@ -6641,7 +6669,7 @@
       <c r="C85" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="D85" s="116">
+      <c r="D85" s="115">
         <v>1994.9</v>
       </c>
       <c r="E85" s="12" t="s">
@@ -6685,7 +6713,7 @@
       <c r="C86" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D86" s="116">
+      <c r="D86" s="115">
         <v>2677.9</v>
       </c>
       <c r="E86" s="12" t="s">
@@ -6729,7 +6757,7 @@
       <c r="C87" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="D87" s="116">
+      <c r="D87" s="115">
         <v>1448.9</v>
       </c>
       <c r="E87" s="20" t="s">
@@ -6773,7 +6801,7 @@
       <c r="C88" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="D88" s="116">
+      <c r="D88" s="115">
         <v>3436.9</v>
       </c>
       <c r="E88" s="20" t="s">
@@ -6817,7 +6845,7 @@
       <c r="C89" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="D89" s="116">
+      <c r="D89" s="115">
         <v>1356.9</v>
       </c>
       <c r="E89" s="20" t="s">
@@ -6861,7 +6889,7 @@
       <c r="C90" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="D90" s="116">
+      <c r="D90" s="115">
         <v>3412.9</v>
       </c>
       <c r="E90" s="20" t="s">
@@ -6905,7 +6933,7 @@
       <c r="C91" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="D91" s="116">
+      <c r="D91" s="115">
         <v>1474.9</v>
       </c>
       <c r="E91" s="20" t="s">
@@ -6949,7 +6977,7 @@
       <c r="C92" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="D92" s="116">
+      <c r="D92" s="115">
         <v>699.9</v>
       </c>
       <c r="E92" s="20" t="s">
@@ -6993,7 +7021,7 @@
       <c r="C93" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="D93" s="116">
+      <c r="D93" s="115">
         <v>5826.9</v>
       </c>
       <c r="E93" s="20" t="s">
@@ -7037,7 +7065,7 @@
       <c r="C94" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="D94" s="116">
+      <c r="D94" s="115">
         <v>1238.9000000000001</v>
       </c>
       <c r="E94" s="20" t="s">
@@ -7081,7 +7109,7 @@
       <c r="C95" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="116">
+      <c r="D95" s="115">
         <v>4328.8999999999996</v>
       </c>
       <c r="E95" s="12" t="s">
@@ -7122,10 +7150,10 @@
       <c r="B96" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="C96" s="93" t="s">
+      <c r="C96" s="92" t="s">
         <v>276</v>
       </c>
-      <c r="D96" s="116">
+      <c r="D96" s="115">
         <v>2074.16</v>
       </c>
       <c r="E96" s="20" t="s">
@@ -7169,7 +7197,7 @@
       <c r="C97" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D97" s="116">
+      <c r="D97" s="115">
         <v>641.11</v>
       </c>
       <c r="E97" s="12" t="s">
@@ -7213,7 +7241,7 @@
       <c r="C98" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="D98" s="116">
+      <c r="D98" s="115">
         <v>2541.11</v>
       </c>
       <c r="E98" s="20" t="s">
@@ -7257,7 +7285,7 @@
       <c r="C99" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="D99" s="116">
+      <c r="D99" s="115">
         <v>2618.89</v>
       </c>
       <c r="E99" s="20" t="s">
@@ -7301,7 +7329,7 @@
       <c r="C100" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="D100" s="116">
+      <c r="D100" s="115">
         <v>2052.2199999999998</v>
       </c>
       <c r="E100" s="20" t="s">
@@ -7345,7 +7373,7 @@
       <c r="C101" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D101" s="116">
+      <c r="D101" s="115">
         <v>1359.9</v>
       </c>
       <c r="E101" s="12" t="s">
@@ -7389,7 +7417,7 @@
       <c r="C102" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D102" s="116">
+      <c r="D102" s="115">
         <v>702.9</v>
       </c>
       <c r="E102" s="16" t="s">
@@ -7433,7 +7461,7 @@
       <c r="C103" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="D103" s="116">
+      <c r="D103" s="115">
         <v>2290.9</v>
       </c>
       <c r="E103" s="12" t="s">
@@ -7477,7 +7505,7 @@
       <c r="C104" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D104" s="116">
+      <c r="D104" s="115">
         <v>1229.9000000000001</v>
       </c>
       <c r="E104" s="12" t="s">
@@ -7521,7 +7549,7 @@
       <c r="C105" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D105" s="116">
+      <c r="D105" s="115">
         <v>1321.9</v>
       </c>
       <c r="E105" s="12" t="s">
@@ -7565,7 +7593,7 @@
       <c r="C106" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D106" s="116">
+      <c r="D106" s="115">
         <v>777.9</v>
       </c>
       <c r="E106" s="12" t="s">
@@ -7609,7 +7637,7 @@
       <c r="C107" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D107" s="116">
+      <c r="D107" s="115">
         <v>2904.9</v>
       </c>
       <c r="E107" s="12" t="s">
@@ -7653,7 +7681,7 @@
       <c r="C108" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D108" s="116">
+      <c r="D108" s="115">
         <v>881.9</v>
       </c>
       <c r="E108" s="12" t="s">
@@ -7697,7 +7725,7 @@
       <c r="C109" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="D109" s="116">
+      <c r="D109" s="115">
         <v>3386.9</v>
       </c>
       <c r="E109" s="12" t="s">
@@ -7741,7 +7769,7 @@
       <c r="C110" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D110" s="116">
+      <c r="D110" s="115">
         <v>3290.9</v>
       </c>
       <c r="E110" s="12" t="s">
@@ -7785,7 +7813,7 @@
       <c r="C111" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D111" s="116">
+      <c r="D111" s="115">
         <v>1923.9</v>
       </c>
       <c r="E111" s="12" t="s">
@@ -7829,7 +7857,7 @@
       <c r="C112" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D112" s="116">
+      <c r="D112" s="115">
         <v>2801.9</v>
       </c>
       <c r="E112" s="12" t="s">
@@ -7873,7 +7901,7 @@
       <c r="C113" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D113" s="116">
+      <c r="D113" s="115">
         <v>1918.9</v>
       </c>
       <c r="E113" s="12" t="s">
@@ -7917,7 +7945,7 @@
       <c r="C114" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D114" s="116">
+      <c r="D114" s="115">
         <v>2488.9</v>
       </c>
       <c r="E114" s="12" t="s">
@@ -7961,7 +7989,7 @@
       <c r="C115" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D115" s="116">
+      <c r="D115" s="115">
         <v>2440.9</v>
       </c>
       <c r="E115" s="12" t="s">
@@ -8005,7 +8033,7 @@
       <c r="C116" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D116" s="116">
+      <c r="D116" s="115">
         <v>3420.9</v>
       </c>
       <c r="E116" s="12" t="s">
@@ -8049,7 +8077,7 @@
       <c r="C117" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D117" s="116">
+      <c r="D117" s="115">
         <v>1302.9000000000001</v>
       </c>
       <c r="E117" s="12" t="s">
@@ -8093,7 +8121,7 @@
       <c r="C118" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D118" s="116">
+      <c r="D118" s="115">
         <v>7078.9</v>
       </c>
       <c r="E118" s="12" t="s">
@@ -8137,7 +8165,7 @@
       <c r="C119" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D119" s="116">
+      <c r="D119" s="115">
         <v>1681.9</v>
       </c>
       <c r="E119" s="12" t="s">
@@ -8181,7 +8209,7 @@
       <c r="C120" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="D120" s="116">
+      <c r="D120" s="115">
         <v>1051.9000000000001</v>
       </c>
       <c r="E120" s="12" t="s">
@@ -8225,7 +8253,7 @@
       <c r="C121" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="D121" s="116">
+      <c r="D121" s="115">
         <v>710.9</v>
       </c>
       <c r="E121" s="12" t="s">
@@ -8269,7 +8297,7 @@
       <c r="C122" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="D122" s="116">
+      <c r="D122" s="115">
         <v>2207.7800000000002</v>
       </c>
       <c r="E122" s="20" t="s">
@@ -8313,7 +8341,7 @@
       <c r="C123" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="D123" s="116">
+      <c r="D123" s="115">
         <v>727.2</v>
       </c>
       <c r="E123" s="20" t="s">
@@ -8357,7 +8385,7 @@
       <c r="C124" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="D124" s="116">
+      <c r="D124" s="115">
         <v>974.25</v>
       </c>
       <c r="E124" s="20" t="s">
@@ -8401,7 +8429,7 @@
       <c r="C125" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D125" s="116">
+      <c r="D125" s="115">
         <v>4557.1400000000003</v>
       </c>
       <c r="E125" s="20" t="s">
@@ -8445,7 +8473,7 @@
       <c r="C126" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="D126" s="116">
+      <c r="D126" s="115">
         <v>749.25</v>
       </c>
       <c r="E126" s="20" t="s">
@@ -8489,7 +8517,7 @@
       <c r="C127" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="D127" s="116">
+      <c r="D127" s="115">
         <v>3979</v>
       </c>
       <c r="E127" s="20" t="s">
@@ -8533,7 +8561,7 @@
       <c r="C128" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="D128" s="116">
+      <c r="D128" s="115">
         <v>3519.2</v>
       </c>
       <c r="E128" s="20" t="s">
@@ -8577,7 +8605,7 @@
       <c r="C129" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="D129" s="116">
+      <c r="D129" s="115">
         <v>1104.1500000000001</v>
       </c>
       <c r="E129" s="20" t="s">
@@ -8621,7 +8649,7 @@
       <c r="C130" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="D130" s="116">
+      <c r="D130" s="115">
         <v>1079.2</v>
       </c>
       <c r="E130" s="20" t="s">
@@ -8665,7 +8693,7 @@
       <c r="C131" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D131" s="116">
+      <c r="D131" s="115">
         <v>6184.9</v>
       </c>
       <c r="E131" s="12" t="s">
@@ -8709,7 +8737,7 @@
       <c r="C132" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D132" s="116">
+      <c r="D132" s="115">
         <v>718.89</v>
       </c>
       <c r="E132" s="20" t="s">
@@ -8744,91 +8772,91 @@
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A133" s="9">
+      <c r="A133" s="116">
         <v>7510706132027</v>
       </c>
-      <c r="B133" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="D133" s="116">
+      <c r="B133" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="D133" s="118">
         <v>1341.11</v>
       </c>
-      <c r="E133" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F133" s="12">
-        <v>1</v>
-      </c>
-      <c r="G133" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="H133" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I133" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J133" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K133" s="13" t="s">
+      <c r="E133" s="118" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" s="16">
+        <v>1</v>
+      </c>
+      <c r="G133" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="H133" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I133" s="16" t="s">
+        <v>670</v>
+      </c>
+      <c r="J133" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K133" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="L133" s="14">
+      <c r="L133" s="1">
         <v>30039</v>
       </c>
-      <c r="M133" s="10" t="s">
+      <c r="M133" s="12" t="s">
         <v>617</v>
       </c>
       <c r="N133" s="10" t="s">
-        <v>605</v>
+        <v>634</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A134" s="9">
+      <c r="A134" s="116">
         <v>7510706139822</v>
       </c>
-      <c r="B134" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="D134" s="116">
-        <v>1652.22</v>
-      </c>
-      <c r="E134" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F134" s="12">
-        <v>1</v>
-      </c>
-      <c r="G134" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="H134" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I134" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J134" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K134" s="13" t="s">
+      <c r="B134" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="D134" s="117">
+        <v>1622.52</v>
+      </c>
+      <c r="E134" s="118" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" s="16">
+        <v>1</v>
+      </c>
+      <c r="G134" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="H134" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I134" s="16" t="s">
+        <v>670</v>
+      </c>
+      <c r="J134" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K134" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="L134" s="14">
+      <c r="L134" s="1">
         <v>30039</v>
       </c>
-      <c r="M134" s="10" t="s">
+      <c r="M134" s="12" t="s">
         <v>617</v>
       </c>
       <c r="N134" s="10" t="s">
-        <v>605</v>
+        <v>634</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -8841,7 +8869,7 @@
       <c r="C135" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D135" s="116">
+      <c r="D135" s="115">
         <v>941.11</v>
       </c>
       <c r="E135" s="20" t="s">
@@ -8885,7 +8913,7 @@
       <c r="C136" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D136" s="116">
+      <c r="D136" s="115">
         <v>1107.78</v>
       </c>
       <c r="E136" s="20" t="s">
@@ -8929,7 +8957,7 @@
       <c r="C137" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="D137" s="116">
+      <c r="D137" s="115">
         <v>3175</v>
       </c>
       <c r="E137" s="20" t="s">
@@ -8973,7 +9001,7 @@
       <c r="C138" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D138" s="116">
+      <c r="D138" s="115">
         <v>1210</v>
       </c>
       <c r="E138" s="20" t="s">
@@ -9017,7 +9045,7 @@
       <c r="C139" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="D139" s="116">
+      <c r="D139" s="115">
         <v>2461.52</v>
       </c>
       <c r="E139" s="12" t="s">
@@ -9061,7 +9089,7 @@
       <c r="C140" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D140" s="116">
+      <c r="D140" s="115">
         <v>1791.04</v>
       </c>
       <c r="E140" s="12" t="s">
@@ -9105,7 +9133,7 @@
       <c r="C141" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="D141" s="116">
+      <c r="D141" s="115">
         <v>1617.04</v>
       </c>
       <c r="E141" s="12" t="s">
@@ -9149,7 +9177,7 @@
       <c r="C142" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="D142" s="116">
+      <c r="D142" s="115">
         <v>2568.2399999999998</v>
       </c>
       <c r="E142" s="12" t="s">
@@ -9193,7 +9221,7 @@
       <c r="C143" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="D143" s="116">
+      <c r="D143" s="115">
         <v>3892.96</v>
       </c>
       <c r="E143" s="12" t="s">
@@ -9237,7 +9265,7 @@
       <c r="C144" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="D144" s="116">
+      <c r="D144" s="115">
         <v>1628.64</v>
       </c>
       <c r="E144" s="12" t="s">
@@ -9281,7 +9309,7 @@
       <c r="C145" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="D145" s="116">
+      <c r="D145" s="115">
         <v>1591.52</v>
       </c>
       <c r="E145" s="12" t="s">
@@ -9325,7 +9353,7 @@
       <c r="C146" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="D146" s="116">
+      <c r="D146" s="115">
         <v>1343.28</v>
       </c>
       <c r="E146" s="12" t="s">
@@ -9369,7 +9397,7 @@
       <c r="C147" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="D147" s="116">
+      <c r="D147" s="115">
         <v>2851.28</v>
       </c>
       <c r="E147" s="12" t="s">
@@ -9413,7 +9441,7 @@
       <c r="C148" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="D148" s="116">
+      <c r="D148" s="115">
         <v>5795.36</v>
       </c>
       <c r="E148" s="12" t="s">
@@ -9457,7 +9485,7 @@
       <c r="C149" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="D149" s="116">
+      <c r="D149" s="115">
         <v>2259.6799999999998</v>
       </c>
       <c r="E149" s="12" t="s">
@@ -9501,7 +9529,7 @@
       <c r="C150" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="D150" s="116">
+      <c r="D150" s="115">
         <v>814.32</v>
       </c>
       <c r="E150" s="12" t="s">
@@ -9545,7 +9573,7 @@
       <c r="C151" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="D151" s="116">
+      <c r="D151" s="115">
         <v>1707.52</v>
       </c>
       <c r="E151" s="12" t="s">
@@ -9589,7 +9617,7 @@
       <c r="C152" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="D152" s="116">
+      <c r="D152" s="115">
         <v>1875.72</v>
       </c>
       <c r="E152" s="12" t="s">
@@ -9633,7 +9661,7 @@
       <c r="C153" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="D153" s="116">
+      <c r="D153" s="115">
         <v>11497.92</v>
       </c>
       <c r="E153" s="12" t="s">
@@ -9677,7 +9705,7 @@
       <c r="C154" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="D154" s="116">
+      <c r="D154" s="115">
         <v>1876.88</v>
       </c>
       <c r="E154" s="12" t="s">
@@ -9721,7 +9749,7 @@
       <c r="C155" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="D155" s="116">
+      <c r="D155" s="115">
         <v>972.08</v>
       </c>
       <c r="E155" s="12" t="s">
@@ -9765,7 +9793,7 @@
       <c r="C156" s="30" t="s">
         <v>571</v>
       </c>
-      <c r="D156" s="116">
+      <c r="D156" s="115">
         <v>1026.75</v>
       </c>
       <c r="E156" s="20" t="s">
@@ -9809,7 +9837,7 @@
       <c r="C157" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D157" s="116">
+      <c r="D157" s="115">
         <v>741.11</v>
       </c>
       <c r="E157" s="20" t="s">
@@ -9853,7 +9881,7 @@
       <c r="C158" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="D158" s="116">
+      <c r="D158" s="115">
         <v>2541.11</v>
       </c>
       <c r="E158" s="20" t="s">
@@ -9888,37 +9916,37 @@
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A159" s="94">
+      <c r="A159" s="93">
         <v>7510705243988</v>
       </c>
-      <c r="B159" s="95" t="s">
+      <c r="B159" s="94" t="s">
         <v>603</v>
       </c>
-      <c r="C159" s="96" t="s">
+      <c r="C159" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="D159" s="116">
+      <c r="D159" s="115">
         <v>641.11</v>
       </c>
-      <c r="E159" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="F159" s="94">
-        <v>1</v>
-      </c>
-      <c r="G159" s="95" t="s">
+      <c r="E159" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="F159" s="93">
+        <v>1</v>
+      </c>
+      <c r="G159" s="94" t="s">
         <v>612</v>
       </c>
-      <c r="H159" s="85" t="s">
+      <c r="H159" s="84" t="s">
         <v>195</v>
       </c>
-      <c r="I159" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="J159" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="K159" s="98" t="s">
+      <c r="I159" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="J159" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="K159" s="97" t="s">
         <v>279</v>
       </c>
       <c r="L159" s="1">
@@ -9932,37 +9960,37 @@
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A160" s="94">
+      <c r="A160" s="93">
         <v>7510705245106</v>
       </c>
-      <c r="B160" s="95" t="s">
+      <c r="B160" s="94" t="s">
         <v>348</v>
       </c>
-      <c r="C160" s="99" t="s">
+      <c r="C160" s="98" t="s">
         <v>349</v>
       </c>
-      <c r="D160" s="116">
+      <c r="D160" s="115">
         <v>2207.7800000000002</v>
       </c>
-      <c r="E160" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="F160" s="85">
-        <v>1</v>
-      </c>
-      <c r="G160" s="100" t="s">
+      <c r="E160" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" s="84">
+        <v>1</v>
+      </c>
+      <c r="G160" s="99" t="s">
         <v>282</v>
       </c>
-      <c r="H160" s="85" t="s">
+      <c r="H160" s="84" t="s">
         <v>195</v>
       </c>
-      <c r="I160" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="J160" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="K160" s="98" t="s">
+      <c r="I160" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="J160" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="K160" s="97" t="s">
         <v>283</v>
       </c>
       <c r="L160" s="1">
@@ -9985,7 +10013,7 @@
       <c r="C161" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="D161" s="116">
+      <c r="D161" s="115">
         <v>1290</v>
       </c>
       <c r="E161" s="20" t="s">
@@ -10029,7 +10057,7 @@
       <c r="C162" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="D162" s="116">
+      <c r="D162" s="115">
         <v>1320</v>
       </c>
       <c r="E162" s="20" t="s">
@@ -10073,7 +10101,7 @@
       <c r="C163" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="D163" s="116">
+      <c r="D163" s="115">
         <v>3490</v>
       </c>
       <c r="E163" s="20" t="s">
@@ -10117,7 +10145,7 @@
       <c r="C164" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="D164" s="116">
+      <c r="D164" s="115">
         <v>1190</v>
       </c>
       <c r="E164" s="20" t="s">
@@ -10161,7 +10189,7 @@
       <c r="C165" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="D165" s="116">
+      <c r="D165" s="115">
         <v>1390</v>
       </c>
       <c r="E165" s="20" t="s">
@@ -10205,10 +10233,10 @@
       <c r="C166" s="64" t="s">
         <v>476</v>
       </c>
-      <c r="D166" s="116" t="e">
+      <c r="D166" s="115" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E166" s="85" t="s">
+      <c r="E166" s="84" t="s">
         <v>15</v>
       </c>
       <c r="F166" s="12">
@@ -10249,10 +10277,10 @@
       <c r="C167" s="64" t="s">
         <v>480</v>
       </c>
-      <c r="D167" s="116" t="e">
+      <c r="D167" s="115" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E167" s="85" t="s">
+      <c r="E167" s="84" t="s">
         <v>15</v>
       </c>
       <c r="F167" s="12">
@@ -10293,10 +10321,10 @@
       <c r="C168" s="64" t="s">
         <v>484</v>
       </c>
-      <c r="D168" s="116" t="e">
+      <c r="D168" s="115" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E168" s="85" t="s">
+      <c r="E168" s="84" t="s">
         <v>15</v>
       </c>
       <c r="F168" s="12">
@@ -10328,7 +10356,7 @@
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A169" s="87">
+      <c r="A169" s="86">
         <v>7510707293074</v>
       </c>
       <c r="B169" s="64" t="s">
@@ -10337,10 +10365,10 @@
       <c r="C169" s="64" t="s">
         <v>498</v>
       </c>
-      <c r="D169" s="116" t="e">
+      <c r="D169" s="115" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E169" s="85" t="s">
+      <c r="E169" s="84" t="s">
         <v>15</v>
       </c>
       <c r="F169" s="12">
@@ -10381,10 +10409,10 @@
       <c r="C170" s="64" t="s">
         <v>476</v>
       </c>
-      <c r="D170" s="116" t="e">
+      <c r="D170" s="115" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E170" s="85" t="s">
+      <c r="E170" s="84" t="s">
         <v>15</v>
       </c>
       <c r="F170" s="12">
@@ -10416,7 +10444,7 @@
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A171" s="87">
+      <c r="A171" s="86">
         <v>7510707362292</v>
       </c>
       <c r="B171" s="64" t="s">
@@ -10425,10 +10453,10 @@
       <c r="C171" s="64" t="s">
         <v>490</v>
       </c>
-      <c r="D171" s="116" t="e">
+      <c r="D171" s="115" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E171" s="85" t="s">
+      <c r="E171" s="84" t="s">
         <v>15</v>
       </c>
       <c r="F171" s="12">
@@ -10460,7 +10488,7 @@
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A172" s="87">
+      <c r="A172" s="86">
         <v>7510707362293</v>
       </c>
       <c r="B172" s="64" t="s">
@@ -10469,10 +10497,10 @@
       <c r="C172" s="64" t="s">
         <v>494</v>
       </c>
-      <c r="D172" s="116" t="e">
+      <c r="D172" s="115" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E172" s="85" t="s">
+      <c r="E172" s="84" t="s">
         <v>15</v>
       </c>
       <c r="F172" s="12">
@@ -10513,7 +10541,7 @@
       <c r="C173" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="D173" s="116">
+      <c r="D173" s="115">
         <v>3885.56</v>
       </c>
       <c r="E173" s="20" t="s">
@@ -10557,7 +10585,7 @@
       <c r="C174" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="D174" s="116">
+      <c r="D174" s="115">
         <v>1120.9000000000001</v>
       </c>
       <c r="E174" s="12" t="s">
@@ -10601,7 +10629,7 @@
       <c r="C175" s="34" t="s">
         <v>511</v>
       </c>
-      <c r="D175" s="116">
+      <c r="D175" s="115">
         <v>3295.9</v>
       </c>
       <c r="E175" s="12" t="s">
@@ -10645,7 +10673,7 @@
       <c r="C176" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D176" s="116">
+      <c r="D176" s="115">
         <v>1126.9000000000001</v>
       </c>
       <c r="E176" s="17" t="s">
@@ -10689,7 +10717,7 @@
       <c r="C177" s="34" t="s">
         <v>515</v>
       </c>
-      <c r="D177" s="116">
+      <c r="D177" s="115">
         <v>3387.9</v>
       </c>
       <c r="E177" s="12" t="s">
@@ -10733,7 +10761,7 @@
       <c r="C178" s="22" t="s">
         <v>539</v>
       </c>
-      <c r="D178" s="116">
+      <c r="D178" s="115">
         <v>2485.9</v>
       </c>
       <c r="E178" s="17" t="s">
@@ -10777,7 +10805,7 @@
       <c r="C179" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="D179" s="116">
+      <c r="D179" s="115">
         <v>3994.9</v>
       </c>
       <c r="E179" s="20" t="s">
@@ -10821,7 +10849,7 @@
       <c r="C180" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="D180" s="116">
+      <c r="D180" s="115">
         <v>6176.9</v>
       </c>
       <c r="E180" s="20" t="s">
@@ -10865,7 +10893,7 @@
       <c r="C181" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="D181" s="116">
+      <c r="D181" s="115">
         <v>2972.9</v>
       </c>
       <c r="E181" s="16" t="s">
@@ -10909,7 +10937,7 @@
       <c r="C182" s="22" t="s">
         <v>528</v>
       </c>
-      <c r="D182" s="116">
+      <c r="D182" s="115">
         <v>1373.44</v>
       </c>
       <c r="E182" s="17" t="s">
@@ -10953,7 +10981,7 @@
       <c r="C183" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D183" s="116">
+      <c r="D183" s="115">
         <v>688.9</v>
       </c>
       <c r="E183" s="17" t="s">
@@ -10980,7 +11008,7 @@
       <c r="L183" s="21">
         <v>30134</v>
       </c>
-      <c r="M183" s="101" t="s">
+      <c r="M183" s="100" t="s">
         <v>638</v>
       </c>
       <c r="N183" s="3" t="s">
@@ -10997,7 +11025,7 @@
       <c r="C184" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="D184" s="116">
+      <c r="D184" s="115">
         <v>2701.9</v>
       </c>
       <c r="E184" s="12" t="s">
@@ -11041,7 +11069,7 @@
       <c r="C185" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D185" s="116">
+      <c r="D185" s="115">
         <v>2551.9</v>
       </c>
       <c r="E185" s="12" t="s">
@@ -11079,13 +11107,13 @@
       <c r="A186" s="9">
         <v>755074777</v>
       </c>
-      <c r="B186" s="75" t="s">
+      <c r="B186" s="74" t="s">
         <v>542</v>
       </c>
       <c r="C186" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D186" s="116">
+      <c r="D186" s="115">
         <v>2653.9</v>
       </c>
       <c r="E186" s="12" t="s">
@@ -11123,13 +11151,13 @@
       <c r="A187" s="9">
         <v>755075814</v>
       </c>
-      <c r="B187" s="75" t="s">
+      <c r="B187" s="74" t="s">
         <v>544</v>
       </c>
       <c r="C187" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="D187" s="116">
+      <c r="D187" s="115">
         <v>6456.9</v>
       </c>
       <c r="E187" s="12" t="s">
@@ -11173,7 +11201,7 @@
       <c r="C188" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D188" s="116">
+      <c r="D188" s="115">
         <v>2685.9</v>
       </c>
       <c r="E188" s="12" t="s">
@@ -11217,7 +11245,7 @@
       <c r="C189" s="22" t="s">
         <v>449</v>
       </c>
-      <c r="D189" s="116">
+      <c r="D189" s="115">
         <v>670.9</v>
       </c>
       <c r="E189" s="17" t="s">
@@ -11252,37 +11280,37 @@
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A190" s="102">
+      <c r="A190" s="101">
         <v>7510702695638</v>
       </c>
-      <c r="B190" s="103" t="s">
+      <c r="B190" s="102" t="s">
         <v>642</v>
       </c>
-      <c r="C190" s="104" t="s">
+      <c r="C190" s="103" t="s">
         <v>643</v>
       </c>
-      <c r="D190" s="116">
+      <c r="D190" s="115">
         <v>676.9</v>
       </c>
-      <c r="E190" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="F190" s="104">
-        <v>1</v>
-      </c>
-      <c r="G190" s="104" t="s">
+      <c r="E190" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F190" s="103">
+        <v>1</v>
+      </c>
+      <c r="G190" s="103" t="s">
         <v>644</v>
       </c>
-      <c r="H190" s="106" t="s">
+      <c r="H190" s="105" t="s">
         <v>645</v>
       </c>
-      <c r="I190" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="J190" s="106" t="s">
+      <c r="I190" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="J190" s="105" t="s">
         <v>646</v>
       </c>
-      <c r="K190" s="107" t="s">
+      <c r="K190" s="106" t="s">
         <v>647</v>
       </c>
       <c r="L190" s="14">
@@ -11296,37 +11324,37 @@
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A191" s="102">
+      <c r="A191" s="101">
         <v>7510706663971</v>
       </c>
-      <c r="B191" s="108" t="s">
+      <c r="B191" s="107" t="s">
         <v>648</v>
       </c>
-      <c r="C191" s="110" t="s">
+      <c r="C191" s="109" t="s">
         <v>649</v>
       </c>
-      <c r="D191" s="116">
+      <c r="D191" s="115">
         <v>1876.9</v>
       </c>
-      <c r="E191" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="F191" s="104">
-        <v>1</v>
-      </c>
-      <c r="G191" s="106" t="s">
+      <c r="E191" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F191" s="103">
+        <v>1</v>
+      </c>
+      <c r="G191" s="105" t="s">
         <v>650</v>
       </c>
-      <c r="H191" s="106" t="s">
+      <c r="H191" s="105" t="s">
         <v>645</v>
       </c>
-      <c r="I191" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="J191" s="106" t="s">
+      <c r="I191" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="J191" s="105" t="s">
         <v>646</v>
       </c>
-      <c r="K191" s="109" t="s">
+      <c r="K191" s="108" t="s">
         <v>651</v>
       </c>
       <c r="L191" s="14">
@@ -11340,37 +11368,37 @@
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A192" s="103">
+      <c r="A192" s="102">
         <v>68963</v>
       </c>
-      <c r="B192" s="103" t="s">
+      <c r="B192" s="102" t="s">
         <v>652</v>
       </c>
-      <c r="C192" s="104" t="s">
+      <c r="C192" s="103" t="s">
         <v>653</v>
       </c>
-      <c r="D192" s="116" t="e">
+      <c r="D192" s="115" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E192" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="F192" s="104">
-        <v>1</v>
-      </c>
-      <c r="G192" s="104" t="s">
+      <c r="E192" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F192" s="103">
+        <v>1</v>
+      </c>
+      <c r="G192" s="103" t="s">
         <v>654</v>
       </c>
-      <c r="H192" s="106" t="s">
+      <c r="H192" s="105" t="s">
         <v>645</v>
       </c>
-      <c r="I192" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="J192" s="106" t="s">
+      <c r="I192" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="J192" s="105" t="s">
         <v>646</v>
       </c>
-      <c r="K192" s="104" t="s">
+      <c r="K192" s="103" t="s">
         <v>655</v>
       </c>
       <c r="L192" s="14">
@@ -11384,37 +11412,37 @@
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A193" s="103">
+      <c r="A193" s="102">
         <v>73806</v>
       </c>
-      <c r="B193" s="103" t="s">
+      <c r="B193" s="102" t="s">
         <v>656</v>
       </c>
-      <c r="C193" s="104" t="s">
+      <c r="C193" s="103" t="s">
         <v>199</v>
       </c>
-      <c r="D193" s="116" t="e">
+      <c r="D193" s="115" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E193" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="F193" s="104">
-        <v>1</v>
-      </c>
-      <c r="G193" s="104" t="s">
+      <c r="E193" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F193" s="103">
+        <v>1</v>
+      </c>
+      <c r="G193" s="103" t="s">
         <v>320</v>
       </c>
-      <c r="H193" s="106" t="s">
+      <c r="H193" s="105" t="s">
         <v>645</v>
       </c>
-      <c r="I193" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="J193" s="106" t="s">
+      <c r="I193" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="J193" s="105" t="s">
         <v>646</v>
       </c>
-      <c r="K193" s="104" t="s">
+      <c r="K193" s="103" t="s">
         <v>655</v>
       </c>
       <c r="L193" s="14">
@@ -11428,37 +11456,37 @@
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A194" s="111">
+      <c r="A194" s="110">
         <v>69599</v>
       </c>
-      <c r="B194" s="108" t="s">
+      <c r="B194" s="107" t="s">
         <v>657</v>
       </c>
-      <c r="C194" s="104" t="s">
+      <c r="C194" s="103" t="s">
         <v>658</v>
       </c>
-      <c r="D194" s="116" t="e">
+      <c r="D194" s="115" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E194" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="F194" s="104">
-        <v>1</v>
-      </c>
-      <c r="G194" s="104" t="s">
+      <c r="E194" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F194" s="103">
+        <v>1</v>
+      </c>
+      <c r="G194" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="H194" s="106" t="s">
+      <c r="H194" s="105" t="s">
         <v>645</v>
       </c>
-      <c r="I194" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="J194" s="106" t="s">
+      <c r="I194" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="J194" s="105" t="s">
         <v>646</v>
       </c>
-      <c r="K194" s="112" t="s">
+      <c r="K194" s="111" t="s">
         <v>659</v>
       </c>
       <c r="L194" s="14">
@@ -11472,37 +11500,37 @@
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A195" s="113">
+      <c r="A195" s="112">
         <v>73552</v>
       </c>
-      <c r="B195" s="114" t="s">
+      <c r="B195" s="113" t="s">
         <v>660</v>
       </c>
-      <c r="C195" s="110" t="s">
+      <c r="C195" s="109" t="s">
         <v>661</v>
       </c>
-      <c r="D195" s="116" t="e">
+      <c r="D195" s="115" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E195" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="F195" s="104">
+      <c r="E195" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F195" s="103">
         <v>2</v>
       </c>
-      <c r="G195" s="106" t="s">
+      <c r="G195" s="105" t="s">
         <v>662</v>
       </c>
-      <c r="H195" s="106" t="s">
+      <c r="H195" s="105" t="s">
         <v>645</v>
       </c>
-      <c r="I195" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="J195" s="106" t="s">
+      <c r="I195" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="J195" s="105" t="s">
         <v>646</v>
       </c>
-      <c r="K195" s="115" t="s">
+      <c r="K195" s="114" t="s">
         <v>663</v>
       </c>
       <c r="L195" s="14">
@@ -11516,37 +11544,37 @@
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A196" s="113">
+      <c r="A196" s="112">
         <v>755063521</v>
       </c>
-      <c r="B196" s="114" t="s">
+      <c r="B196" s="113" t="s">
         <v>664</v>
       </c>
-      <c r="C196" s="110" t="s">
+      <c r="C196" s="109" t="s">
         <v>665</v>
       </c>
-      <c r="D196" s="116">
+      <c r="D196" s="115">
         <v>5943.9</v>
       </c>
-      <c r="E196" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="F196" s="104">
-        <v>1</v>
-      </c>
-      <c r="G196" s="106" t="s">
+      <c r="E196" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F196" s="103">
+        <v>1</v>
+      </c>
+      <c r="G196" s="105" t="s">
         <v>662</v>
       </c>
-      <c r="H196" s="106" t="s">
+      <c r="H196" s="105" t="s">
         <v>645</v>
       </c>
-      <c r="I196" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="J196" s="106" t="s">
-        <v>18</v>
-      </c>
-      <c r="K196" s="109" t="s">
+      <c r="I196" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="J196" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="K196" s="108" t="s">
         <v>666</v>
       </c>
       <c r="L196" s="14">
@@ -11557,6 +11585,94 @@
       </c>
       <c r="N196" s="10" t="s">
         <v>586</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A197" s="9">
+        <v>7510706486409</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D197" s="119">
+        <v>941.11</v>
+      </c>
+      <c r="E197" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F197" s="12">
+        <v>1</v>
+      </c>
+      <c r="G197" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H197" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I197" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J197" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K197" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="L197" s="14">
+        <v>30039</v>
+      </c>
+      <c r="M197" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="N197" s="10" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A198" s="9">
+        <v>7510706486409</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D198" s="119">
+        <v>1107.78</v>
+      </c>
+      <c r="E198" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F198" s="12">
+        <v>1</v>
+      </c>
+      <c r="G198" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H198" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I198" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J198" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K198" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="L198" s="14">
+        <v>30039</v>
+      </c>
+      <c r="M198" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="N198" s="10" t="s">
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -11608,8 +11724,8 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="79"/>
-    <col min="13" max="14" width="24.33203125" style="80" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="78"/>
+    <col min="13" max="14" width="24.33203125" style="79" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -11649,10 +11765,10 @@
       <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="77" t="s">
+      <c r="N1" s="76" t="s">
         <v>577</v>
       </c>
     </row>
@@ -12599,7 +12715,7 @@
       <c r="J26" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="74" t="s">
+      <c r="K26" s="18" t="s">
         <v>525</v>
       </c>
       <c r="L26" s="1">
@@ -13674,7 +13790,7 @@
       <c r="A55" s="9">
         <v>755074777</v>
       </c>
-      <c r="B55" s="75" t="s">
+      <c r="B55" s="74" t="s">
         <v>542</v>
       </c>
       <c r="C55" s="10" t="s">
@@ -13788,7 +13904,7 @@
       <c r="A58" s="9">
         <v>755075814</v>
       </c>
-      <c r="B58" s="75" t="s">
+      <c r="B58" s="74" t="s">
         <v>544</v>
       </c>
       <c r="C58" s="10" t="s">
@@ -16141,7 +16257,7 @@
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A120" s="81">
+      <c r="A120" s="80">
         <v>7510705243988</v>
       </c>
       <c r="B120" s="22" t="s">
@@ -16168,13 +16284,13 @@
       <c r="I120" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J120" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="K120" s="83" t="s">
+      <c r="J120" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="K120" s="82" t="s">
         <v>279</v>
       </c>
-      <c r="L120" s="84">
+      <c r="L120" s="83">
         <v>30049</v>
       </c>
     </row>
@@ -17200,7 +17316,7 @@
       <c r="K147" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="L147" s="78">
+      <c r="L147" s="77">
         <v>30008</v>
       </c>
     </row>
@@ -17276,7 +17392,7 @@
       <c r="K149" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="L149" s="78">
+      <c r="L149" s="77">
         <v>30008</v>
       </c>
     </row>
@@ -17898,10 +18014,10 @@
       <c r="C166" s="64" t="s">
         <v>476</v>
       </c>
-      <c r="D166" s="86">
+      <c r="D166" s="85">
         <v>2390</v>
       </c>
-      <c r="E166" s="85" t="s">
+      <c r="E166" s="84" t="s">
         <v>15</v>
       </c>
       <c r="F166" s="12">
@@ -17939,7 +18055,7 @@
       <c r="D167" s="11">
         <v>1899</v>
       </c>
-      <c r="E167" s="85" t="s">
+      <c r="E167" s="84" t="s">
         <v>15</v>
       </c>
       <c r="F167" s="12">
@@ -17977,7 +18093,7 @@
       <c r="D168" s="11">
         <v>4980</v>
       </c>
-      <c r="E168" s="85" t="s">
+      <c r="E168" s="84" t="s">
         <v>15</v>
       </c>
       <c r="F168" s="12">
@@ -18079,7 +18195,7 @@
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A171" s="87">
+      <c r="A171" s="86">
         <v>7510707293074</v>
       </c>
       <c r="B171" s="64" t="s">
@@ -18088,10 +18204,10 @@
       <c r="C171" s="64" t="s">
         <v>498</v>
       </c>
-      <c r="D171" s="88" t="s">
+      <c r="D171" s="87" t="s">
         <v>583</v>
       </c>
-      <c r="E171" s="85" t="s">
+      <c r="E171" s="84" t="s">
         <v>15</v>
       </c>
       <c r="F171" s="12">
@@ -18126,10 +18242,10 @@
       <c r="C172" s="64" t="s">
         <v>476</v>
       </c>
-      <c r="D172" s="86">
+      <c r="D172" s="85">
         <v>1390</v>
       </c>
-      <c r="E172" s="85" t="s">
+      <c r="E172" s="84" t="s">
         <v>15</v>
       </c>
       <c r="F172" s="12">
@@ -18269,7 +18385,7 @@
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A176" s="87">
+      <c r="A176" s="86">
         <v>7510707362292</v>
       </c>
       <c r="B176" s="64" t="s">
@@ -18278,10 +18394,10 @@
       <c r="C176" s="64" t="s">
         <v>490</v>
       </c>
-      <c r="D176" s="86">
+      <c r="D176" s="85">
         <v>1790</v>
       </c>
-      <c r="E176" s="85" t="s">
+      <c r="E176" s="84" t="s">
         <v>15</v>
       </c>
       <c r="F176" s="12">
@@ -18307,7 +18423,7 @@
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A177" s="87">
+      <c r="A177" s="86">
         <v>7510707362293</v>
       </c>
       <c r="B177" s="64" t="s">
@@ -18316,10 +18432,10 @@
       <c r="C177" s="64" t="s">
         <v>494</v>
       </c>
-      <c r="D177" s="86">
+      <c r="D177" s="85">
         <v>1390</v>
       </c>
-      <c r="E177" s="85" t="s">
+      <c r="E177" s="84" t="s">
         <v>15</v>
       </c>
       <c r="F177" s="12">
@@ -18492,7 +18608,7 @@
       <c r="K181" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="L181" s="78">
+      <c r="L181" s="77">
         <v>30124</v>
       </c>
     </row>
@@ -18530,7 +18646,7 @@
       <c r="K182" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="L182" s="78">
+      <c r="L182" s="77">
         <v>30124</v>
       </c>
     </row>
@@ -18568,7 +18684,7 @@
       <c r="K183" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="L183" s="78">
+      <c r="L183" s="77">
         <v>30124</v>
       </c>
     </row>
@@ -18606,7 +18722,7 @@
       <c r="K184" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="L184" s="78">
+      <c r="L184" s="77">
         <v>30124</v>
       </c>
     </row>
@@ -18644,7 +18760,7 @@
       <c r="K185" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="L185" s="78">
+      <c r="L185" s="77">
         <v>30008</v>
       </c>
     </row>
@@ -18682,22 +18798,22 @@
       <c r="K186" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="L186" s="78">
+      <c r="L186" s="77">
         <v>30124</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A187" s="79"/>
-      <c r="B187" s="80"/>
-      <c r="C187" s="80"/>
-      <c r="D187" s="90"/>
-      <c r="E187" s="89"/>
-      <c r="F187" s="89"/>
-      <c r="G187" s="80"/>
-      <c r="H187" s="80"/>
-      <c r="I187" s="80"/>
-      <c r="J187" s="80"/>
-      <c r="K187" s="79"/>
+      <c r="A187" s="78"/>
+      <c r="B187" s="79"/>
+      <c r="C187" s="79"/>
+      <c r="D187" s="89"/>
+      <c r="E187" s="88"/>
+      <c r="F187" s="88"/>
+      <c r="G187" s="79"/>
+      <c r="H187" s="79"/>
+      <c r="I187" s="79"/>
+      <c r="J187" s="79"/>
+      <c r="K187" s="78"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
